--- a/Classification_Expected_Results_v.02.xlsx
+++ b/Classification_Expected_Results_v.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13918,7 +13918,7 @@
   </sheetPr>
   <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -27177,8 +27177,8 @@
   </sheetPr>
   <dimension ref="A1:Z533"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27369,7 +27369,7 @@
         <v>1742</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -27675,7 +27675,7 @@
         <v>1760</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>

--- a/Classification_Expected_Results_v.02.xlsx
+++ b/Classification_Expected_Results_v.02.xlsx
@@ -7636,11 +7636,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="26" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11495,11 +11495,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="138.076923076923"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="139.36032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="26" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13924,12 +13924,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="121.473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="122.542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21498,17 +21498,17 @@
   </sheetPr>
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.1619433198381"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="26" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21541,7 +21541,7 @@
         <v>1003</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21574,7 +21574,7 @@
         <v>1009</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21651,7 +21651,7 @@
         <v>1023</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21720,7 +21720,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>1037</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>1038</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25072,7 +25072,7 @@
         <v>1488</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27177,18 +27177,18 @@
   </sheetPr>
   <dimension ref="A1:Z533"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27497,7 +27497,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>1749</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>1750</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -27599,7 +27599,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>1755</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>1756</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -27735,7 +27735,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>1763</v>
       </c>
@@ -27743,7 +27743,7 @@
         <v>1764</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -27845,7 +27845,7 @@
         <v>1770</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -28013,7 +28013,7 @@
         <v>1779</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -28999,7 +28999,7 @@
         <v>1837</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
